--- a/wash_P/NIG.xlsx
+++ b/wash_P/NIG.xlsx
@@ -89331,7 +89331,7 @@
         <v>0</v>
       </c>
       <c r="ADH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADI28" t="n">
         <v>0</v>
